--- a/2023_Csarp_vs/ch1/ConsoleApp1/ConsoleApp1/TempData/수상자목록.xlsx
+++ b/2023_Csarp_vs/ch1/ConsoleApp1/ConsoleApp1/TempData/수상자목록.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C샵hwp연습용\2023_Csarp_hwp\2023_uipath_Csarp\uipath_windows_hwp\TempData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C샵hwp연습용\2023_Csarp_hwp\2023_Csarp_vs\ch1\ConsoleApp1\ConsoleApp1\TempData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D57D7B-FA40-43AE-AEE0-D6B909B60EAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DB75B3-B033-487E-8152-B782BCCDDE6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648" xr2:uid="{6F126728-9CE4-4866-9E50-6EE997EE0038}"/>
   </bookViews>
@@ -115,6 +115,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="180" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;\ d&quot;일&quot;;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -158,7 +161,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -478,14 +481,14 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">

--- a/2023_Csarp_vs/ch1/ConsoleApp1/ConsoleApp1/TempData/수상자목록.xlsx
+++ b/2023_Csarp_vs/ch1/ConsoleApp1/ConsoleApp1/TempData/수상자목록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C샵hwp연습용\2023_Csarp_hwp\2023_Csarp_vs\ch1\ConsoleApp1\ConsoleApp1\TempData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DB75B3-B033-487E-8152-B782BCCDDE6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB106C2-83C8-48CB-BA1E-35F3EC034987}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648" xr2:uid="{6F126728-9CE4-4866-9E50-6EE997EE0038}"/>
   </bookViews>
@@ -116,7 +116,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;\ d&quot;일&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;\ d&quot;일&quot;;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -161,7 +161,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -481,7 +481,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/2023_Csarp_vs/ch1/ConsoleApp1/ConsoleApp1/TempData/수상자목록.xlsx
+++ b/2023_Csarp_vs/ch1/ConsoleApp1/ConsoleApp1/TempData/수상자목록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C샵hwp연습용\2023_Csarp_hwp\2023_Csarp_vs\ch1\ConsoleApp1\ConsoleApp1\TempData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB106C2-83C8-48CB-BA1E-35F3EC034987}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B1E441-FE70-470E-816F-25FE89C624E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648" xr2:uid="{6F126728-9CE4-4866-9E50-6EE997EE0038}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>상이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,18 @@
   </si>
   <si>
     <t>일련번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023년11월26일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023년11월26일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023년11월23일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -115,9 +127,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;\ d&quot;일&quot;;@"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -161,7 +170,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -478,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B43D0D-4B86-4E14-9EA2-045FEED2909E}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -489,9 +498,10 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.09765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -511,7 +521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -524,14 +534,14 @@
       <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1">
-        <v>45620</v>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -544,14 +554,15 @@
       <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1">
-        <v>45621</v>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -564,14 +575,14 @@
       <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1">
-        <v>45622</v>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -584,14 +595,14 @@
       <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="1">
-        <v>45623</v>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -604,14 +615,14 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="1">
-        <v>45624</v>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -624,14 +635,14 @@
       <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="1">
-        <v>45625</v>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -644,8 +655,8 @@
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="1">
-        <v>45626</v>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F8" t="s">
         <v>19</v>
